--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1202.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1202.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7776888137250829</v>
+        <v>1.169627547264099</v>
       </c>
       <c r="B1">
-        <v>1.451608681110262</v>
+        <v>2.440605640411377</v>
       </c>
       <c r="C1">
-        <v>5.46022318797302</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.167309596794044</v>
+        <v>2.362940549850464</v>
       </c>
       <c r="E1">
-        <v>1.49609176824458</v>
+        <v>1.237362027168274</v>
       </c>
     </row>
   </sheetData>
